--- a/20171127_20171203_appendix.xlsx
+++ b/20171127_20171203_appendix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
   <si>
     <t>Symbol</t>
   </si>
@@ -259,22 +259,31 @@
     <t>Algonquin Power &amp; Utilities Corp.</t>
   </si>
   <si>
-    <t>EPAM</t>
-  </si>
-  <si>
-    <t>$4.8B</t>
-  </si>
-  <si>
-    <t>EPAM Systems, Inc.</t>
-  </si>
-  <si>
-    <t>$5.64B</t>
-  </si>
-  <si>
-    <t>$1.46B</t>
-  </si>
-  <si>
-    <t>$586.2M</t>
+    <t>PFG</t>
+  </si>
+  <si>
+    <t>$4.74B</t>
+  </si>
+  <si>
+    <t>Principal Financial Group Inc</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>$20.36B</t>
+  </si>
+  <si>
+    <t>$7.99B</t>
+  </si>
+  <si>
+    <t>$508.81B</t>
+  </si>
+  <si>
+    <t>$1.48B</t>
+  </si>
+  <si>
+    <t>$592.13M</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1773,10 +1817,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1786,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D34253-7285-468E-832D-C5BF9C577434}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AK5"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,7 +2036,7 @@
         <v>77</v>
       </c>
       <c r="AH2" s="7">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="AI2" s="7">
         <v>0.75</v>
@@ -2012,10 +2056,10 @@
         <v>81</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>58</v>
@@ -2024,395 +2068,493 @@
         <v>79</v>
       </c>
       <c r="H3" s="7">
-        <v>0.77195000000000003</v>
+        <v>2.76424</v>
       </c>
       <c r="I3" s="7">
-        <v>0.68113999999999997</v>
+        <v>1.0573999999999999</v>
       </c>
       <c r="J3" s="7">
-        <v>0.43869999999999998</v>
+        <v>1.19323</v>
       </c>
       <c r="K3" s="7">
-        <v>0.46387</v>
+        <v>1.08755</v>
       </c>
       <c r="L3" s="7">
-        <v>0.48592999999999997</v>
+        <v>1.05765</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>79</v>
       </c>
       <c r="O3" s="7">
-        <v>377.52300000000002</v>
+        <v>4644.3999999999996</v>
       </c>
       <c r="P3" s="7">
-        <v>348.97699999999998</v>
+        <v>3192.5</v>
       </c>
       <c r="Q3" s="7">
-        <v>324.65100000000001</v>
+        <v>3078.2</v>
       </c>
       <c r="R3" s="7">
-        <v>313.52499999999998</v>
+        <v>3542.8</v>
       </c>
       <c r="S3" s="7">
-        <v>298.29300000000001</v>
+        <v>2829.3</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>79</v>
       </c>
       <c r="V3" s="7">
-        <v>2.3556599999999999</v>
+        <v>6.1024200000000004</v>
       </c>
       <c r="W3" s="7">
-        <v>2.8617599999999999</v>
+        <v>7.5397230000000004</v>
       </c>
       <c r="X3" s="7">
-        <v>14.79861</v>
+        <v>15.67812</v>
       </c>
       <c r="Z3" s="7" t="s">
         <v>79</v>
       </c>
       <c r="AA3" s="7">
-        <v>1.86538</v>
+        <v>4.4977799999999997</v>
       </c>
       <c r="AB3" s="7">
-        <v>1.62459</v>
+        <v>4.0580499999999997</v>
       </c>
       <c r="AC3" s="7">
-        <v>1.4002699999999999</v>
+        <v>3.7197900000000002</v>
       </c>
       <c r="AD3" s="7">
-        <v>1.2819799999999999</v>
+        <v>2.9500299999999999</v>
       </c>
       <c r="AE3" s="7">
-        <v>1.1730400000000001</v>
+        <v>2.5752299999999999</v>
       </c>
       <c r="AG3" s="7" t="s">
         <v>79</v>
       </c>
       <c r="AH3" s="7">
-        <v>3.42</v>
+        <v>5.21</v>
       </c>
       <c r="AI3" s="7">
-        <v>4.13</v>
+        <v>5.59</v>
       </c>
       <c r="AJ3" s="7">
-        <v>682</v>
+        <v>1411</v>
       </c>
       <c r="AK3" s="7">
-        <v>134</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7">
-        <v>0.49596000000000001</v>
+        <v>2.2619500000000001</v>
       </c>
       <c r="I4" s="7">
-        <v>0.80894999999999995</v>
+        <v>2.10833</v>
       </c>
       <c r="J4" s="7">
-        <v>0.24822</v>
+        <v>1.22831</v>
       </c>
       <c r="K4" s="7">
-        <v>0.29498000000000002</v>
+        <v>1.49404</v>
       </c>
       <c r="L4" s="7">
-        <v>0.26644000000000001</v>
+        <v>1.5733999999999999</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O4" s="7">
-        <v>158.149</v>
+        <v>1934.672</v>
       </c>
       <c r="P4" s="7">
-        <v>194.89400000000001</v>
+        <v>2015.2239999999999</v>
       </c>
       <c r="Q4" s="7">
-        <v>212.67699999999999</v>
+        <v>1588.5250000000001</v>
       </c>
       <c r="R4" s="7">
-        <v>108.947</v>
+        <v>1708.5309999999999</v>
       </c>
       <c r="S4" s="7">
-        <v>124.571</v>
+        <v>1292.636</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="V4" s="7">
-        <v>1.8481099999999999</v>
+        <v>8.0296800000000008</v>
       </c>
       <c r="W4" s="7">
-        <v>2.34781</v>
+        <v>9.8182899999999993</v>
       </c>
       <c r="X4" s="7">
-        <v>50.494230000000002</v>
+        <v>28.1694</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AA4" s="7">
-        <v>1.1905600000000001</v>
+        <v>7.0937299999999999</v>
       </c>
       <c r="AB4" s="7">
-        <v>0.88558999999999999</v>
+        <v>4.90625</v>
       </c>
       <c r="AC4" s="7">
-        <v>0.65803999999999996</v>
+        <v>3.7917800000000002</v>
       </c>
       <c r="AD4" s="7">
-        <v>0.25407000000000002</v>
+        <v>3.28918</v>
       </c>
       <c r="AE4" s="7">
-        <v>-0.10199999999999999</v>
+        <v>2.8555899999999999</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AH4" s="7">
-        <v>1.95</v>
+        <v>6.75</v>
       </c>
       <c r="AI4" s="7">
-        <v>2.2679999999999998</v>
+        <v>8.9749999999999996</v>
       </c>
       <c r="AJ4" s="7">
-        <v>531</v>
+        <v>965</v>
       </c>
       <c r="AK4" s="7">
-        <v>168</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H5" s="7">
-        <v>0.54813999999999996</v>
+        <v>1.5923499999999999</v>
       </c>
       <c r="I5" s="7">
-        <v>0.40275</v>
+        <v>1.31955</v>
       </c>
       <c r="J5" s="7">
-        <v>0.21177000000000001</v>
+        <v>1.0407599999999999</v>
       </c>
       <c r="K5" s="7">
-        <v>0.31281999999999999</v>
+        <v>1.42719</v>
       </c>
       <c r="L5" s="7">
-        <v>0.32877000000000001</v>
+        <v>0.89627999999999997</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O5" s="7">
-        <v>91.263000000000005</v>
+        <v>10328</v>
       </c>
       <c r="P5" s="7">
-        <v>83.736000000000004</v>
+        <v>9321</v>
       </c>
       <c r="Q5" s="7">
-        <v>64.058999999999997</v>
+        <v>8032</v>
       </c>
       <c r="R5" s="7">
-        <v>63.021999999999998</v>
+        <v>8809</v>
       </c>
       <c r="S5" s="7">
-        <v>60.091000000000001</v>
+        <v>7011</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="V5" s="7">
-        <v>1.4754799999999999</v>
+        <v>5.1619999999999999</v>
       </c>
       <c r="W5" s="7">
-        <v>2.55247</v>
+        <v>6.32301</v>
       </c>
       <c r="X5" s="7">
-        <v>10.335599999999999</v>
+        <v>24.27966</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="7">
-        <v>1.2166600000000001</v>
+        <v>3.4929899999999998</v>
       </c>
       <c r="AB5" s="7">
-        <v>1.17685</v>
+        <v>1.29267</v>
       </c>
       <c r="AC5" s="7">
-        <v>0.875</v>
+        <v>1.1035999999999999</v>
       </c>
       <c r="AD5" s="7">
-        <v>0.69547999999999999</v>
+        <v>0.59594999999999998</v>
       </c>
       <c r="AE5" s="7">
-        <v>0.52032</v>
+        <v>2.4930000000000001E-2</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AH5" s="7">
-        <v>2.335</v>
+        <v>5.88</v>
       </c>
       <c r="AI5" s="7">
-        <v>2.8250000000000002</v>
+        <v>6.67</v>
       </c>
       <c r="AJ5" s="7">
-        <v>221</v>
+        <v>3600</v>
       </c>
       <c r="AK5" s="7">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.49596000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.80894999999999995</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.24822</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.29498000000000002</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.26644000000000001</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="7">
+        <v>158.149</v>
+      </c>
+      <c r="P6" s="7">
+        <v>194.89400000000001</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>212.67699999999999</v>
+      </c>
+      <c r="R6" s="7">
+        <v>108.947</v>
+      </c>
+      <c r="S6" s="7">
+        <v>124.571</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" s="7">
+        <v>1.8481099999999999</v>
+      </c>
+      <c r="W6" s="7">
+        <v>2.34781</v>
+      </c>
+      <c r="X6" s="7">
+        <v>50.494230000000002</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>1.1905600000000001</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0.88558999999999999</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0.65803999999999996</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0.25407000000000002</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>1.95</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>531</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>168</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.54813999999999996</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.40275</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.21177000000000001</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.31281999999999999</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.32877000000000001</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="7">
+        <v>91.263000000000005</v>
+      </c>
+      <c r="P7" s="7">
+        <v>83.736000000000004</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>64.058999999999997</v>
+      </c>
+      <c r="R7" s="7">
+        <v>63.021999999999998</v>
+      </c>
+      <c r="S7" s="7">
+        <v>60.091000000000001</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="7">
+        <v>1.4754799999999999</v>
+      </c>
+      <c r="W7" s="7">
+        <v>2.55247</v>
+      </c>
+      <c r="X7" s="7">
+        <v>10.335599999999999</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>1.2166600000000001</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1.17685</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0.69547999999999999</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0.52032</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>2.335</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>221</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="duplicateValues" dxfId="15" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="duplicateValues" dxfId="14" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="13" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7">
-    <cfRule type="duplicateValues" dxfId="12" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7">
-    <cfRule type="duplicateValues" dxfId="11" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="duplicateValues" dxfId="10" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U6">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z6">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG6">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
+  <conditionalFormatting sqref="G2:G7">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N5">
+  <conditionalFormatting sqref="N2:N7">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U5">
+  <conditionalFormatting sqref="U2:U7">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z5">
+  <conditionalFormatting sqref="Z2:Z7">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG5">
+  <conditionalFormatting sqref="AG2:AG7">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
